--- a/SIMMR QPB/QPBFeb19.xlsx
+++ b/SIMMR QPB/QPBFeb19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTER\Manuscript 2019 Stable Isotopes\Isotopes_Analysis_2017_2019\SIMMR_QPB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTER\Manuscript 2019 Stable Isotopes\Isotopes-Analysis\SIMMR QPB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6F6F4A-105F-4A61-A403-B9BB611AA6B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051E2AA4-2465-4B16-AF2C-11CEF3CCC7A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{682CD829-CE99-4243-847C-7BC9FABF46A6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{682CD829-CE99-4243-847C-7BC9FABF46A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Targets" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Source</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>SDd15N</t>
-  </si>
-  <si>
-    <t>Algae</t>
   </si>
   <si>
     <t>Sources</t>
@@ -454,21 +451,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4948DE50-105B-4A72-9D97-ECACD847B3F9}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:C39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C39" sqref="A38:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -934,26 +931,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5769C2C-76EC-4477-87AA-85AA9E349D2E}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -964,7 +961,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>-30.168333333333333</v>
@@ -981,7 +978,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>-27.145333333333337</v>
@@ -1005,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923AFFC4-5D99-4670-8F71-3E87D037D088}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1020,10 +1017,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1034,7 +1031,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>-0.41</v>
@@ -1051,7 +1048,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>-0.41</v>
